--- a/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
+++ b/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="2440" windowWidth="20580" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Block的内存位置" sheetId="5" r:id="rId1"/>
+    <sheet name="layoutSubviews" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>引用的变量类型</t>
   </si>
@@ -79,6 +80,15 @@
   </si>
   <si>
     <t>简化后的结果</t>
+  </si>
+  <si>
+    <t>layoutSubViews</t>
+  </si>
+  <si>
+    <t>方法名</t>
+  </si>
+  <si>
+    <t>触发时机</t>
   </si>
 </sst>
 </file>
@@ -120,10 +130,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,9 +441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,13 +580,13 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -613,7 +623,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -747,4 +757,38 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
+++ b/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Block的内存位置" sheetId="5" r:id="rId1"/>
     <sheet name="layoutSubviews" sheetId="6" r:id="rId2"/>
+    <sheet name="runtime_fishhook" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>引用的变量类型</t>
   </si>
@@ -89,6 +90,81 @@
   </si>
   <si>
     <t>触发时机</t>
+  </si>
+  <si>
+    <t>runtime_function_name</t>
+  </si>
+  <si>
+    <t>objc_autorelease</t>
+  </si>
+  <si>
+    <t>objc_autoreleasePoolPop</t>
+  </si>
+  <si>
+    <t>objc_autoreleasePoolPush</t>
+  </si>
+  <si>
+    <t>objc_autoreleaseReturnValue</t>
+  </si>
+  <si>
+    <t>objc_copyWeak</t>
+  </si>
+  <si>
+    <t>objc_destroyWeak</t>
+  </si>
+  <si>
+    <t>objc_initWeak</t>
+  </si>
+  <si>
+    <t>objc_loadWeak</t>
+  </si>
+  <si>
+    <t>objc_loadWeakRetained</t>
+  </si>
+  <si>
+    <t>objc_moveWeak</t>
+  </si>
+  <si>
+    <t>objc_release</t>
+  </si>
+  <si>
+    <t>objc_retain</t>
+  </si>
+  <si>
+    <t>objc_retainAutorelease</t>
+  </si>
+  <si>
+    <t>objc_retainAutoreleaseReturnValue</t>
+  </si>
+  <si>
+    <t>objc_retainAutoreleasedReturnValue</t>
+  </si>
+  <si>
+    <t>objc_retainBlock</t>
+  </si>
+  <si>
+    <t>objc_storeStrong</t>
+  </si>
+  <si>
+    <t>objc_storeWeak</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>会被无限递归调用</t>
+  </si>
+  <si>
+    <t>fishhook后</t>
+  </si>
+  <si>
+    <t>没有触发，不知道调用时机</t>
+  </si>
+  <si>
+    <t>会在main位置出现崩溃</t>
+  </si>
+  <si>
+    <t>在进入函数的那一块会被无限调用</t>
   </si>
 </sst>
 </file>
@@ -763,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -791,4 +867,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
+++ b/RXVerifyExample/RXVerifyExample/Res/doc/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Block的内存位置" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>引用的变量类型</t>
   </si>
@@ -200,13 +200,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,9 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -586,7 +589,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,13 +661,13 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -873,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
